--- a/deliverables/results.xlsx
+++ b/deliverables/results.xlsx
@@ -396,10 +396,10 @@
         </is>
       </c>
       <c r="C2">
-        <v>1.390097158189227</v>
+        <v>1.38879644512626</v>
       </c>
       <c r="D2">
-        <v>13.63057720484605</v>
+        <v>13.61939013344408</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -419,10 +419,10 @@
         </is>
       </c>
       <c r="C3">
-        <v>1.390602532877885</v>
+        <v>1.391480697509158</v>
       </c>
       <c r="D3">
-        <v>13.64388322037322</v>
+        <v>13.64402576613062</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -442,10 +442,10 @@
         </is>
       </c>
       <c r="C4">
-        <v>1.392665446515522</v>
+        <v>1.394651977899693</v>
       </c>
       <c r="D4">
-        <v>13.65826948063654</v>
+        <v>13.66508380266237</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
         </is>
       </c>
       <c r="C5">
-        <v>1.398624977547043</v>
+        <v>1.398521408716209</v>
       </c>
       <c r="D5">
-        <v>13.65583834501544</v>
+        <v>13.6543612233569</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -484,18 +484,18 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Weight.Norm1</t>
+          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Density</t>
         </is>
       </c>
       <c r="C6">
-        <v>1.399554939967285</v>
+        <v>1.399498093200198</v>
       </c>
       <c r="D6">
-        <v>13.70215986983383</v>
+        <v>13.72785380924834</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Weight.Norm1</t>
+          <t>Density</t>
         </is>
       </c>
     </row>
@@ -507,18 +507,18 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + SurfaceArea</t>
+          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Weight.Norm1</t>
         </is>
       </c>
       <c r="C7">
-        <v>1.40048127535936</v>
+        <v>1.399668548830342</v>
       </c>
       <c r="D7">
-        <v>13.73232416620189</v>
+        <v>13.71182416566895</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SurfaceArea</t>
+          <t>Weight.Norm1</t>
         </is>
       </c>
     </row>
@@ -530,18 +530,18 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Weight.Norm2</t>
+          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight</t>
         </is>
       </c>
       <c r="C8">
-        <v>1.4006642488509</v>
+        <v>1.399693627449006</v>
       </c>
       <c r="D8">
-        <v>13.72096067755212</v>
+        <v>13.68242005715009</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Weight.Norm2</t>
+          <t>baseline</t>
         </is>
       </c>
     </row>
@@ -553,18 +553,18 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Weight.Mean2</t>
+          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Weight.Mean1</t>
         </is>
       </c>
       <c r="C9">
-        <v>1.401057932018167</v>
+        <v>1.40012568195296</v>
       </c>
       <c r="D9">
-        <v>13.7342251705382</v>
+        <v>13.71651062684804</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Weight.Mean2</t>
+          <t>Weight.Mean1</t>
         </is>
       </c>
     </row>
@@ -576,18 +576,18 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Viscera.Ratio</t>
+          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Weight.Norm2</t>
         </is>
       </c>
       <c r="C10">
-        <v>1.401251862223728</v>
+        <v>1.401944560729086</v>
       </c>
       <c r="D10">
-        <v>13.7299083420232</v>
+        <v>13.733453053217</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Viscera.Ratio</t>
+          <t>Weight.Norm2</t>
         </is>
       </c>
     </row>
@@ -599,18 +599,18 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight</t>
+          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Elongation</t>
         </is>
       </c>
       <c r="C11">
-        <v>1.401269363234642</v>
+        <v>1.402604998119228</v>
       </c>
       <c r="D11">
-        <v>13.70299894220172</v>
+        <v>13.74124438417103</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>baseline</t>
+          <t>Elongation</t>
         </is>
       </c>
     </row>
@@ -622,18 +622,18 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Density</t>
+          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Viscera.Ratio</t>
         </is>
       </c>
       <c r="C12">
-        <v>1.401316971724971</v>
+        <v>1.402859828754444</v>
       </c>
       <c r="D12">
-        <v>13.73045249754353</v>
+        <v>13.75010667653109</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Viscera.Ratio</t>
         </is>
       </c>
     </row>
@@ -645,18 +645,18 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Weight.Mean1</t>
+          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Size.Norm</t>
         </is>
       </c>
       <c r="C13">
-        <v>1.40292717539089</v>
+        <v>1.40294972086543</v>
       </c>
       <c r="D13">
-        <v>13.74835185525519</v>
+        <v>13.7410855292762</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Weight.Mean1</t>
+          <t>Size.Norm</t>
         </is>
       </c>
     </row>
@@ -668,18 +668,18 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Size.Norm</t>
+          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Weight.Mean2</t>
         </is>
       </c>
       <c r="C14">
-        <v>1.403773021133613</v>
+        <v>1.404618410700273</v>
       </c>
       <c r="D14">
-        <v>13.7405306088038</v>
+        <v>13.75012234456386</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Size.Norm</t>
+          <t>Weight.Mean2</t>
         </is>
       </c>
     </row>
@@ -691,18 +691,18 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Roundness</t>
+          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Size.Mean</t>
         </is>
       </c>
       <c r="C15">
-        <v>1.403796529429348</v>
+        <v>1.40478261490935</v>
       </c>
       <c r="D15">
-        <v>13.7456373210685</v>
+        <v>13.75757762502909</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Roundness</t>
+          <t>Size.Mean</t>
         </is>
       </c>
     </row>
@@ -714,18 +714,18 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Size.Mean</t>
+          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + SurfaceArea</t>
         </is>
       </c>
       <c r="C16">
-        <v>1.404812840071523</v>
+        <v>1.4050616825627</v>
       </c>
       <c r="D16">
-        <v>13.76136375364645</v>
+        <v>13.76706542535711</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Size.Mean</t>
+          <t>SurfaceArea</t>
         </is>
       </c>
     </row>
@@ -737,18 +737,18 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Elongation</t>
+          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Volume</t>
         </is>
       </c>
       <c r="C17">
-        <v>1.404827375091599</v>
+        <v>1.405140554731249</v>
       </c>
       <c r="D17">
-        <v>13.75632388624412</v>
+        <v>13.75125627514389</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Elongation</t>
+          <t>Volume</t>
         </is>
       </c>
     </row>
@@ -760,64 +760,64 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Weight.Norm2 + Volume + SurfaceArea</t>
+          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Roundness</t>
         </is>
       </c>
       <c r="C18">
-        <v>1.405203845378402</v>
+        <v>1.405260083926405</v>
       </c>
       <c r="D18">
-        <v>13.7609870037896</v>
+        <v>13.76544891470989</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Final2</t>
+          <t>Roundness</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>rf</t>
+          <t>lm</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Volume</t>
+          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Weight.Norm2</t>
         </is>
       </c>
       <c r="C19">
-        <v>1.405875543389312</v>
+        <v>1.407197516295797</v>
       </c>
       <c r="D19">
-        <v>13.769920576888</v>
+        <v>13.75686685322801</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Volume</t>
+          <t>Weight.Norm2</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>lm</t>
+          <t>rf</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Weight.Norm2</t>
+          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Weight.Norm2 + Volume + SurfaceArea</t>
         </is>
       </c>
       <c r="C20">
-        <v>1.406581001293747</v>
+        <v>1.407388481792483</v>
       </c>
       <c r="D20">
-        <v>13.75141090171743</v>
+        <v>13.78917176723185</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Weight.Norm2</t>
+          <t>Final2</t>
         </is>
       </c>
     </row>
@@ -833,10 +833,10 @@
         </is>
       </c>
       <c r="C21">
-        <v>1.408181685639154</v>
+        <v>1.409132898812973</v>
       </c>
       <c r="D21">
-        <v>13.79336968069378</v>
+        <v>13.79517384903524</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -856,10 +856,10 @@
         </is>
       </c>
       <c r="C22">
-        <v>1.411177073956468</v>
+        <v>1.409886154933689</v>
       </c>
       <c r="D22">
-        <v>13.81077509733941</v>
+        <v>13.8151064952611</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="C23">
-        <v>1.412308638109022</v>
+        <v>1.412119269850593</v>
       </c>
       <c r="D23">
-        <v>13.81396431830898</v>
+        <v>13.81384878115942</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -902,10 +902,10 @@
         </is>
       </c>
       <c r="C24">
-        <v>1.412734057866984</v>
+        <v>1.41269704200137</v>
       </c>
       <c r="D24">
-        <v>13.81429995002705</v>
+        <v>13.81475661364304</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -925,10 +925,10 @@
         </is>
       </c>
       <c r="C25">
-        <v>1.413062834771771</v>
+        <v>1.412712932314106</v>
       </c>
       <c r="D25">
-        <v>13.82228847150849</v>
+        <v>13.81947888867614</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -948,10 +948,10 @@
         </is>
       </c>
       <c r="C26">
-        <v>1.415150351162568</v>
+        <v>1.415488613453235</v>
       </c>
       <c r="D26">
-        <v>13.86114676727396</v>
+        <v>13.86255981272421</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -971,10 +971,10 @@
         </is>
       </c>
       <c r="C27">
-        <v>1.426033093352011</v>
+        <v>1.426785893082144</v>
       </c>
       <c r="D27">
-        <v>13.94109616104738</v>
+        <v>13.94710956920729</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -994,10 +994,10 @@
         </is>
       </c>
       <c r="C28">
-        <v>1.427675973298737</v>
+        <v>1.427755866387761</v>
       </c>
       <c r="D28">
-        <v>13.96487513215821</v>
+        <v>13.96570900089685</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1017,10 +1017,10 @@
         </is>
       </c>
       <c r="C29">
-        <v>1.43275990881117</v>
+        <v>1.432751742452569</v>
       </c>
       <c r="D29">
-        <v>14.03193039803466</v>
+        <v>14.02889018721522</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1040,10 +1040,10 @@
         </is>
       </c>
       <c r="C30">
-        <v>1.432895675250943</v>
+        <v>1.43305904155459</v>
       </c>
       <c r="D30">
-        <v>14.06428095681246</v>
+        <v>14.06477987319133</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
         </is>
       </c>
       <c r="C31">
-        <v>1.438615713716377</v>
+        <v>1.438834350549892</v>
       </c>
       <c r="D31">
-        <v>14.11157499594127</v>
+        <v>14.11446397711256</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1082,18 +1082,18 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Viscera.Ratio</t>
+          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Roundness</t>
         </is>
       </c>
       <c r="C32">
-        <v>1.439260979894411</v>
+        <v>1.439255622455521</v>
       </c>
       <c r="D32">
-        <v>14.10908453227319</v>
+        <v>14.11420593729475</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Viscera.Ratio</t>
+          <t>Roundness</t>
         </is>
       </c>
     </row>
@@ -1105,18 +1105,18 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Size.Norm</t>
+          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight</t>
         </is>
       </c>
       <c r="C33">
-        <v>1.439329913503126</v>
+        <v>1.439281736737253</v>
       </c>
       <c r="D33">
-        <v>14.11197916738072</v>
+        <v>14.11112593527503</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Size.Norm</t>
+          <t>baseline</t>
         </is>
       </c>
     </row>
@@ -1128,18 +1128,18 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Roundness</t>
+          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Viscera.Ratio</t>
         </is>
       </c>
       <c r="C34">
-        <v>1.439572492225638</v>
+        <v>1.439644936508888</v>
       </c>
       <c r="D34">
-        <v>14.11711543743928</v>
+        <v>14.11431425348616</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Roundness</t>
+          <t>Viscera.Ratio</t>
         </is>
       </c>
     </row>
@@ -1151,18 +1151,18 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight</t>
+          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Size.Norm</t>
         </is>
       </c>
       <c r="C35">
-        <v>1.439696478857858</v>
+        <v>1.4398834050817</v>
       </c>
       <c r="D35">
-        <v>14.11398052249153</v>
+        <v>14.11742120261953</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>baseline</t>
+          <t>Size.Norm</t>
         </is>
       </c>
     </row>
@@ -1178,10 +1178,10 @@
         </is>
       </c>
       <c r="C36">
-        <v>1.440434361108825</v>
+        <v>1.440587755814024</v>
       </c>
       <c r="D36">
-        <v>14.13866476894554</v>
+        <v>14.14099689246952</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1201,10 +1201,10 @@
         </is>
       </c>
       <c r="C37">
-        <v>1.440932982440074</v>
+        <v>1.441015540835781</v>
       </c>
       <c r="D37">
-        <v>14.1521384770347</v>
+        <v>14.1530246563129</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="C38">
-        <v>1.442147702663582</v>
+        <v>1.442150155185012</v>
       </c>
       <c r="D38">
-        <v>14.16317817525759</v>
+        <v>14.16289332428006</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1247,10 +1247,10 @@
         </is>
       </c>
       <c r="C39">
-        <v>1.442673683515091</v>
+        <v>1.443156568830844</v>
       </c>
       <c r="D39">
-        <v>14.18108004008116</v>
+        <v>14.18589132432622</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>

--- a/deliverables/results.xlsx
+++ b/deliverables/results.xlsx
@@ -396,10 +396,10 @@
         </is>
       </c>
       <c r="C2">
-        <v>1.38879644512626</v>
+        <v>1.389615235477486</v>
       </c>
       <c r="D2">
-        <v>13.61939013344408</v>
+        <v>13.6438882610833</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -419,10 +419,10 @@
         </is>
       </c>
       <c r="C3">
-        <v>1.391480697509158</v>
+        <v>1.391122071433365</v>
       </c>
       <c r="D3">
-        <v>13.64402576613062</v>
+        <v>13.65013916179586</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -442,10 +442,10 @@
         </is>
       </c>
       <c r="C4">
-        <v>1.394651977899693</v>
+        <v>1.394211433318491</v>
       </c>
       <c r="D4">
-        <v>13.66508380266237</v>
+        <v>13.67412492936841</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -456,23 +456,23 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>lm</t>
+          <t>rf</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Weight.Norm2 + Volume + SurfaceArea</t>
+          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Weight.Norm2</t>
         </is>
       </c>
       <c r="C5">
-        <v>1.398521408716209</v>
+        <v>1.397992560390227</v>
       </c>
       <c r="D5">
-        <v>13.6543612233569</v>
+        <v>13.69473413790962</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Final2</t>
+          <t>Weight.Norm2</t>
         </is>
       </c>
     </row>
@@ -488,10 +488,10 @@
         </is>
       </c>
       <c r="C6">
-        <v>1.399498093200198</v>
+        <v>1.398904730085527</v>
       </c>
       <c r="D6">
-        <v>13.72785380924834</v>
+        <v>13.71402373816274</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -502,23 +502,23 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>rf</t>
+          <t>lm</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Weight.Norm1</t>
+          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Weight.Norm2 + Volume + SurfaceArea</t>
         </is>
       </c>
       <c r="C7">
-        <v>1.399668548830342</v>
+        <v>1.398992294394684</v>
       </c>
       <c r="D7">
-        <v>13.71182416566895</v>
+        <v>13.65919000883132</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Weight.Norm1</t>
+          <t>Final2</t>
         </is>
       </c>
     </row>
@@ -534,10 +534,10 @@
         </is>
       </c>
       <c r="C8">
-        <v>1.399693627449006</v>
+        <v>1.401184899989127</v>
       </c>
       <c r="D8">
-        <v>13.68242005715009</v>
+        <v>13.70669284078229</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -553,18 +553,18 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Weight.Mean1</t>
+          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Roundness</t>
         </is>
       </c>
       <c r="C9">
-        <v>1.40012568195296</v>
+        <v>1.401832471318404</v>
       </c>
       <c r="D9">
-        <v>13.71651062684804</v>
+        <v>13.72696840164983</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Weight.Mean1</t>
+          <t>Roundness</t>
         </is>
       </c>
     </row>
@@ -576,18 +576,18 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Weight.Norm2</t>
+          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Weight.Norm1</t>
         </is>
       </c>
       <c r="C10">
-        <v>1.401944560729086</v>
+        <v>1.402183959390784</v>
       </c>
       <c r="D10">
-        <v>13.733453053217</v>
+        <v>13.74066895570584</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Weight.Norm2</t>
+          <t>Weight.Norm1</t>
         </is>
       </c>
     </row>
@@ -599,18 +599,18 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Elongation</t>
+          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Size.Norm</t>
         </is>
       </c>
       <c r="C11">
-        <v>1.402604998119228</v>
+        <v>1.40273834772983</v>
       </c>
       <c r="D11">
-        <v>13.74124438417103</v>
+        <v>13.74140555579695</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Elongation</t>
+          <t>Size.Norm</t>
         </is>
       </c>
     </row>
@@ -622,18 +622,18 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Viscera.Ratio</t>
+          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Weight.Mean1</t>
         </is>
       </c>
       <c r="C12">
-        <v>1.402859828754444</v>
+        <v>1.403388279050101</v>
       </c>
       <c r="D12">
-        <v>13.75010667653109</v>
+        <v>13.74907910815711</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Viscera.Ratio</t>
+          <t>Weight.Mean1</t>
         </is>
       </c>
     </row>
@@ -645,18 +645,18 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Size.Norm</t>
+          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Elongation</t>
         </is>
       </c>
       <c r="C13">
-        <v>1.40294972086543</v>
+        <v>1.40363739312509</v>
       </c>
       <c r="D13">
-        <v>13.7410855292762</v>
+        <v>13.7469565925823</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Size.Norm</t>
+          <t>Elongation</t>
         </is>
       </c>
     </row>
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C14">
-        <v>1.404618410700273</v>
+        <v>1.404464126127686</v>
       </c>
       <c r="D14">
-        <v>13.75012234456386</v>
+        <v>13.75913755497312</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -695,10 +695,10 @@
         </is>
       </c>
       <c r="C15">
-        <v>1.40478261490935</v>
+        <v>1.404672282619945</v>
       </c>
       <c r="D15">
-        <v>13.75757762502909</v>
+        <v>13.77331756298665</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -714,18 +714,18 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + SurfaceArea</t>
+          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Weight.Norm2 + Volume + SurfaceArea</t>
         </is>
       </c>
       <c r="C16">
-        <v>1.4050616825627</v>
+        <v>1.404745192986137</v>
       </c>
       <c r="D16">
-        <v>13.76706542535711</v>
+        <v>13.75745674092957</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SurfaceArea</t>
+          <t>Final2</t>
         </is>
       </c>
     </row>
@@ -737,18 +737,18 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Volume</t>
+          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Viscera.Ratio</t>
         </is>
       </c>
       <c r="C17">
-        <v>1.405140554731249</v>
+        <v>1.404828025515462</v>
       </c>
       <c r="D17">
-        <v>13.75125627514389</v>
+        <v>13.76562041085822</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Volume</t>
+          <t>Viscera.Ratio</t>
         </is>
       </c>
     </row>
@@ -760,64 +760,64 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Roundness</t>
+          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Volume</t>
         </is>
       </c>
       <c r="C18">
-        <v>1.405260083926405</v>
+        <v>1.405199622475607</v>
       </c>
       <c r="D18">
-        <v>13.76544891470989</v>
+        <v>13.75745363480553</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Roundness</t>
+          <t>Volume</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>lm</t>
+          <t>rf</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Weight.Norm2</t>
+          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + SurfaceArea</t>
         </is>
       </c>
       <c r="C19">
-        <v>1.407197516295797</v>
+        <v>1.406293892707975</v>
       </c>
       <c r="D19">
-        <v>13.75686685322801</v>
+        <v>13.76661696367778</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Weight.Norm2</t>
+          <t>SurfaceArea</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>rf</t>
+          <t>lm</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Weight.Norm2 + Volume + SurfaceArea</t>
+          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Weight.Norm2</t>
         </is>
       </c>
       <c r="C20">
-        <v>1.407388481792483</v>
+        <v>1.406612338860925</v>
       </c>
       <c r="D20">
-        <v>13.78917176723185</v>
+        <v>13.75115032445027</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Final2</t>
+          <t>Weight.Norm2</t>
         </is>
       </c>
     </row>
@@ -829,18 +829,18 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Shell.Ratio</t>
+          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Flatness</t>
         </is>
       </c>
       <c r="C21">
-        <v>1.409132898812973</v>
+        <v>1.407099797434788</v>
       </c>
       <c r="D21">
-        <v>13.79517384903524</v>
+        <v>13.77522462739726</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Shell.Ratio</t>
+          <t>Flatness</t>
         </is>
       </c>
     </row>
@@ -852,18 +852,18 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Flatness</t>
+          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Shell.Ratio</t>
         </is>
       </c>
       <c r="C22">
-        <v>1.409886154933689</v>
+        <v>1.408511288097467</v>
       </c>
       <c r="D22">
-        <v>13.8151064952611</v>
+        <v>13.79138032760415</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Flatness</t>
+          <t>Shell.Ratio</t>
         </is>
       </c>
     </row>
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="C23">
-        <v>1.412119269850593</v>
+        <v>1.412325708259458</v>
       </c>
       <c r="D23">
-        <v>13.81384878115942</v>
+        <v>13.81460377254738</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -898,18 +898,18 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Weight.Norm1</t>
+          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Weight.Mean1</t>
         </is>
       </c>
       <c r="C24">
-        <v>1.41269704200137</v>
+        <v>1.412638466157482</v>
       </c>
       <c r="D24">
-        <v>13.81475661364304</v>
+        <v>13.82008002397532</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Weight.Norm1</t>
+          <t>Weight.Mean1</t>
         </is>
       </c>
     </row>
@@ -921,18 +921,18 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Weight.Mean1</t>
+          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Weight.Norm1</t>
         </is>
       </c>
       <c r="C25">
-        <v>1.412712932314106</v>
+        <v>1.412816282884496</v>
       </c>
       <c r="D25">
-        <v>13.81947888867614</v>
+        <v>13.81521671943878</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Weight.Mean1</t>
+          <t>Weight.Norm1</t>
         </is>
       </c>
     </row>
@@ -948,10 +948,10 @@
         </is>
       </c>
       <c r="C26">
-        <v>1.415488613453235</v>
+        <v>1.416033026721651</v>
       </c>
       <c r="D26">
-        <v>13.86255981272421</v>
+        <v>13.8671220847401</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -971,10 +971,10 @@
         </is>
       </c>
       <c r="C27">
-        <v>1.426785893082144</v>
+        <v>1.426364524458772</v>
       </c>
       <c r="D27">
-        <v>13.94710956920729</v>
+        <v>13.94470837830024</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -994,10 +994,10 @@
         </is>
       </c>
       <c r="C28">
-        <v>1.427755866387761</v>
+        <v>1.427834243358898</v>
       </c>
       <c r="D28">
-        <v>13.96570900089685</v>
+        <v>13.96651173870903</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1017,10 +1017,10 @@
         </is>
       </c>
       <c r="C29">
-        <v>1.432751742452569</v>
+        <v>1.432652999021871</v>
       </c>
       <c r="D29">
-        <v>14.02889018721522</v>
+        <v>14.0274969582972</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1040,10 +1040,10 @@
         </is>
       </c>
       <c r="C30">
-        <v>1.43305904155459</v>
+        <v>1.433626722558223</v>
       </c>
       <c r="D30">
-        <v>14.06477987319133</v>
+        <v>14.0709825826297</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1059,18 +1059,18 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Elongation</t>
+          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Roundness</t>
         </is>
       </c>
       <c r="C31">
-        <v>1.438834350549892</v>
+        <v>1.438515034363632</v>
       </c>
       <c r="D31">
-        <v>14.11446397711256</v>
+        <v>14.10700376357694</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Elongation</t>
+          <t>Roundness</t>
         </is>
       </c>
     </row>
@@ -1082,18 +1082,18 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Roundness</t>
+          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Size.Norm</t>
         </is>
       </c>
       <c r="C32">
-        <v>1.439255622455521</v>
+        <v>1.438853703890604</v>
       </c>
       <c r="D32">
-        <v>14.11420593729475</v>
+        <v>14.10807372345763</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Roundness</t>
+          <t>Size.Norm</t>
         </is>
       </c>
     </row>
@@ -1105,18 +1105,18 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight</t>
+          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Elongation</t>
         </is>
       </c>
       <c r="C33">
-        <v>1.439281736737253</v>
+        <v>1.439078472503167</v>
       </c>
       <c r="D33">
-        <v>14.11112593527503</v>
+        <v>14.11790901526188</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>baseline</t>
+          <t>Elongation</t>
         </is>
       </c>
     </row>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="C34">
-        <v>1.439644936508888</v>
+        <v>1.439546631902919</v>
       </c>
       <c r="D34">
-        <v>14.11431425348616</v>
+        <v>14.11342858599598</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1151,18 +1151,18 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight + Size.Norm</t>
+          <t>Age ~ Sex + Diameter + Length + Height + Weight + Shucked.Weight +     Viscera.Weight + Shell.Weight</t>
         </is>
       </c>
       <c r="C35">
-        <v>1.4398834050817</v>
+        <v>1.439701843468261</v>
       </c>
       <c r="D35">
-        <v>14.11742120261953</v>
+        <v>14.11518216661309</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Size.Norm</t>
+          <t>baseline</t>
         </is>
       </c>
     </row>
@@ -1178,10 +1178,10 @@
         </is>
       </c>
       <c r="C36">
-        <v>1.440587755814024</v>
+        <v>1.440524843868219</v>
       </c>
       <c r="D36">
-        <v>14.14099689246952</v>
+        <v>14.1389514838136</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1201,10 +1201,10 @@
         </is>
       </c>
       <c r="C37">
-        <v>1.441015540835781</v>
+        <v>1.440972743151746</v>
       </c>
       <c r="D37">
-        <v>14.1530246563129</v>
+        <v>14.15385009799986</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="C38">
-        <v>1.442150155185012</v>
+        <v>1.441988890420775</v>
       </c>
       <c r="D38">
-        <v>14.16289332428006</v>
+        <v>14.15918601233171</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1247,10 +1247,10 @@
         </is>
       </c>
       <c r="C39">
-        <v>1.443156568830844</v>
+        <v>1.443234332486071</v>
       </c>
       <c r="D39">
-        <v>14.18589132432622</v>
+        <v>14.18672676628882</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
